--- a/sprint_9/exc2/exc2_FURPS.xlsx
+++ b/sprint_9/exc2/exc2_FURPS.xlsx
@@ -108,6 +108,15 @@
     <t>Мониторинг, логирование, трейсинг системы должны быть настроены в соответствии в степени, достаточной для поддержки системы</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Предусмотреть разработку документации для дальнейшего расширения системы</t>
+    </r>
+  </si>
+  <si>
     <t>+R</t>
   </si>
   <si>
@@ -139,8 +148,9 @@
     </r>
   </si>
   <si>
-    <t>Предусмотреть разработку документации для дальнейшего расширения системы</t>
-  </si>
+    <t>АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si/>
 </sst>
 </file>
 
@@ -255,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -285,14 +295,11 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="3" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +515,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +615,7 @@
       <c r="B12" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6" t="n"/>
@@ -617,7 +624,7 @@
       <c r="B13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6" t="n"/>
@@ -635,7 +642,7 @@
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="6" t="n"/>
@@ -644,7 +651,7 @@
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="6" t="n"/>
@@ -671,7 +678,7 @@
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="6" t="n"/>
@@ -680,7 +687,7 @@
       <c r="B20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="6" t="n"/>
@@ -721,74 +728,88 @@
       </c>
       <c r="D24" s="6" t="n"/>
     </row>
-    <row customHeight="true" ht="30" outlineLevel="0" r="25">
-      <c r="B25" s="2" t="s">
+    <row ht="0" outlineLevel="0" r="25">
+      <c r="B25" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="6" t="n"/>
+    </row>
+    <row customHeight="true" ht="30" outlineLevel="0" r="26">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="4" t="s"/>
-    </row>
-    <row ht="0" outlineLevel="0" r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="10" t="n">
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4" t="s"/>
+    </row>
+    <row ht="0" outlineLevel="0" r="27">
+      <c r="A27" s="11" t="n"/>
+      <c r="B27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6" t="n"/>
-    </row>
-    <row ht="0" outlineLevel="0" r="27">
-      <c r="A27" s="13" t="n"/>
-      <c r="B27" s="10" t="n">
+      <c r="C27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6" t="n"/>
+    </row>
+    <row ht="0" outlineLevel="0" r="28">
+      <c r="A28" s="11" t="n"/>
+      <c r="B28" s="10" t="n">
         <v>2</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="6" t="n"/>
-    </row>
-    <row customHeight="true" ht="33" outlineLevel="0" r="28">
-      <c r="A28" s="13" t="n"/>
-      <c r="B28" s="10" t="n">
-        <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="6" t="n"/>
     </row>
-    <row ht="0" outlineLevel="0" r="29">
-      <c r="A29" s="13" t="n"/>
+    <row customHeight="true" ht="33" outlineLevel="0" r="29">
+      <c r="A29" s="11" t="n"/>
       <c r="B29" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6" t="n"/>
+    </row>
+    <row ht="0" outlineLevel="0" r="30">
+      <c r="A30" s="11" t="n"/>
+      <c r="B30" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6" t="n"/>
-    </row>
-    <row ht="0" outlineLevel="0" r="30">
-      <c r="A30" s="13" t="n"/>
-      <c r="B30" s="10" t="n">
+      <c r="C30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6" t="n"/>
+    </row>
+    <row ht="0" outlineLevel="0" r="31">
+      <c r="A31" s="11" t="n"/>
+      <c r="B31" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6" t="n"/>
-    </row>
-    <row ht="0" outlineLevel="0" r="31">
-      <c r="A31" s="13" t="n"/>
-      <c r="B31" s="10" t="n">
+      <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="n"/>
+    </row>
+    <row ht="0" outlineLevel="0" r="32">
+      <c r="A32" s="11" t="n"/>
+      <c r="B32" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="6" t="n"/>
+      <c r="C32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="6" t="n"/>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -797,7 +818,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.511811017990112" header="0.511811017990112" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
   <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297mm" paperSize="9" paperWidth="210mm" scale="100"/>
